--- a/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
@@ -9,6 +9,11 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Distribution_Logic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All_Courses_Overview" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,27 +479,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -506,27 +511,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>DA262</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -575,7 +580,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,12 +590,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DA261</t>
         </is>
       </c>
     </row>
@@ -612,17 +617,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -634,27 +639,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>DA262 (Lab)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -671,17 +676,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -701,7 +706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,22 +764,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**DA262**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -784,7 +789,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -794,7 +799,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -806,7 +811,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**HSS_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -816,7 +821,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -853,27 +858,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -900,17 +905,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -920,12 +925,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -947,27 +952,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -994,32 +999,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**DA261**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1029,7 +1034,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1041,27 +1046,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1088,47 +1093,5006 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>**DA262**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>**MA262**</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>**DA261**</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Statistical Programming</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Total Courses: 10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Complete: 1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rate: 10.0%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lectures: 19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[WARN] 9 issues</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Statistical Programming</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1/0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Total Courses: 7</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Complete: 2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rate: 28.6%</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lectures: 13</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Labs: 6</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[WARN] 5 issues</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 6, Elective: 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/10 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>37.1%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 74.3%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 35.1/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Statistical Programming</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Applied</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>In Pre-Mid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In Post-Mid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Statistical Programming</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Statistical Programming</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
@@ -9,11 +9,18 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Distribution_Logic" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="All_Courses_Overview" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Room_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Distribution_Logic" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="All_Courses_Overview" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Basket_Allocation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Basket_Courses" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Classroom_Utilization" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Section_A" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Basket_Course_Allocations" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,27 +486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262 [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 [L402]</t>
         </is>
       </c>
     </row>
@@ -516,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA261 [L402]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,12 +533,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS304 [C305]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
     </row>
@@ -595,7 +602,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>DA261 [C304]</t>
         </is>
       </c>
     </row>
@@ -607,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS304 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +651,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA262 [C004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -654,12 +661,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307 (Lab) [L208]</t>
         </is>
       </c>
     </row>
@@ -671,14 +678,2282 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS307 [L408]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Courses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ASD352, CS253</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MA262 [C004]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA262 [C004]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MA261 [C004]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DA262 [C004]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS304 [L402]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA261 [L402]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS304 [C305]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS307 [C302]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>DA261 [C304]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HSS_B3 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DA262 [C004]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS307 [L408]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
@@ -686,14 +2961,367 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>DA262 (Lab) [L208]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -764,17 +3392,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -804,7 +3432,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -945,7 +3573,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C305, L402, C004</t>
         </is>
       </c>
     </row>
@@ -1024,7 +3652,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1039,41 +3667,41 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L208, L408, C302</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>No</t>
@@ -1086,39 +3714,39 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L402, C004</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**DA262**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1128,7 +3756,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1140,22 +3768,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**DA262**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Siddharth</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1165,7 +3793,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1175,12 +3803,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L106, C004</t>
         </is>
       </c>
     </row>
@@ -1227,7 +3855,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -1259,7 +3887,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Labs: 2</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1284,6 +3912,5472 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Sessions</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Courses Assigned</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sample Courses</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization (Sessions/Day)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MA262, MA261, CS304 (Tutorial)...</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CS304, MA261</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +9528,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/0/2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1929,7 +10023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1998,7 +10092,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-13 16:20</t>
+          <t>2026-01-18 11:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2062,12 +10156,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/35</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 0.0%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
@@ -2084,12 +10178,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>37.1%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 74.3%, B: 0.0%</t>
+          <t>A: 80.0%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -2111,7 +10205,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 35.1/100</t>
+          <t>Score: 36.0/100</t>
         </is>
       </c>
     </row>
@@ -2120,7 +10214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2240,10 +10334,8 @@
           <t>HSS (Ethics)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2+1</t>
-        </is>
+      <c r="F2" t="n">
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2314,10 +10406,8 @@
           <t>Multivariable Calculus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2388,10 +10478,8 @@
           <t>Differential Equations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F4" t="n">
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2462,10 +10550,8 @@
           <t>Data Handling</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F5" t="n">
+        <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2536,10 +10622,8 @@
           <t>Artificial Intelligence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F6" t="n">
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2610,10 +10694,8 @@
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F7" t="n">
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2684,10 +10766,8 @@
           <t>Neuro-Linguistics</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2758,10 +10838,8 @@
           <t>Leadership I</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2832,10 +10910,8 @@
           <t>Sociology for India</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2906,10 +10982,8 @@
           <t>Social Impact</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2980,10 +11054,8 @@
           <t>Holistic Personality</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3054,10 +11126,8 @@
           <t>User Interaction</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F13" t="n">
+        <v>4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3128,10 +11198,8 @@
           <t>HSS/IE</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F14" t="n">
+        <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3202,10 +11270,8 @@
           <t>Statistical Programming</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F15" t="n">
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3257,7 +11323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3430,7 +11496,9 @@
           <t>HSS (Ethics)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>No</t>
@@ -3443,7 +11511,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>nan-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>3-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -3635,7 +11703,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>3-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3683,7 +11751,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3731,7 +11799,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3779,7 +11847,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>1-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3827,7 +11895,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>1-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3875,7 +11943,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>1-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3923,7 +11991,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>1-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3971,7 +12039,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>1-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4259,7 +12327,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4403,7 +12471,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.0-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+          <t>3-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4430,7 +12498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4507,10 +12575,8 @@
           <t>HSS (Ethics)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2+1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -4557,10 +12623,8 @@
           <t>Multivariable Calculus</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C3" t="n">
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -4607,10 +12671,8 @@
           <t>Differential Equations</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -4657,10 +12719,8 @@
           <t>Data Handling</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -4707,10 +12767,8 @@
           <t>Artificial Intelligence</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -4757,10 +12815,8 @@
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C7" t="n">
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -4807,10 +12863,8 @@
           <t>Neuro-Linguistics</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -4857,10 +12911,8 @@
           <t>Leadership I</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -4907,10 +12959,8 @@
           <t>Sociology for India</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -4957,10 +13007,8 @@
           <t>Social Impact</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -5007,10 +13055,8 @@
           <t>Holistic Personality</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>3</v>
@@ -5057,10 +13103,8 @@
           <t>User Interaction</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C13" t="n">
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>3</v>
@@ -5107,10 +13151,8 @@
           <t>HSS/IE</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C14" t="n">
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -5157,10 +13199,8 @@
           <t>Electronics Systems</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C15" t="n">
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -5207,10 +13247,8 @@
           <t>Introduction of Communication</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C16" t="n">
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -5257,10 +13295,8 @@
           <t>Introduction to AI</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C17" t="n">
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -5307,10 +13343,8 @@
           <t>Electronic Systems</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C18" t="n">
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -5357,10 +13391,8 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C19" t="n">
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>3</v>
@@ -5407,10 +13439,8 @@
           <t>HSS (Ethics)</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2+1</t>
-        </is>
+      <c r="C20" t="n">
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
@@ -5457,10 +13487,8 @@
           <t>Multivariable Calculus</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C21" t="n">
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
@@ -5477,7 +13505,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5507,10 +13535,8 @@
           <t>Differential Equations</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C22" t="n">
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
@@ -5527,7 +13553,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5557,10 +13583,8 @@
           <t>Data Handling</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C23" t="n">
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -5607,10 +13631,8 @@
           <t>Artificial Intelligence</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C24" t="n">
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -5657,10 +13679,8 @@
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C25" t="n">
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
@@ -5707,10 +13727,8 @@
           <t>Neuro-Linguistics</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>3</v>
@@ -5757,10 +13775,8 @@
           <t>Leadership I</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>3</v>
@@ -5807,10 +13823,8 @@
           <t>Sociology for India</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C28" t="n">
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>3</v>
@@ -5857,10 +13871,8 @@
           <t>Social Impact</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C29" t="n">
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>3</v>
@@ -5907,10 +13919,8 @@
           <t>Holistic Personality</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C30" t="n">
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>3</v>
@@ -5957,10 +13967,8 @@
           <t>User Interaction</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="C31" t="n">
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>3</v>
@@ -6007,10 +14015,8 @@
           <t>HSS/IE</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C32" t="n">
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>3</v>
@@ -6057,10 +14063,8 @@
           <t>Statistical Programming</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C33" t="n">
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>3</v>
@@ -6077,7 +14081,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">

--- a/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2610,16 +2610,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2678,16 +2678,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>8.75</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2929,12 +2929,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L208]</t>
+          <t>DA262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L208]</t>
+          <t>DA262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4959,17 +4959,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -4983,7 +4983,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -5018,17 +5018,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -5042,7 +5042,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -5278,7 +5278,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -5337,7 +5337,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -5362,22 +5362,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -5396,12 +5396,12 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -5421,12 +5421,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5439,11 +5439,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -5455,7 +5451,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -5480,27 +5476,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5511,15 +5507,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -5539,27 +5539,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5570,15 +5570,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -5598,27 +5602,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5629,15 +5633,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -5657,27 +5665,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5688,15 +5696,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -5716,27 +5728,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5747,15 +5759,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -5775,12 +5791,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5818,7 +5834,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -5838,12 +5854,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5881,7 +5897,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -5901,27 +5917,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5932,19 +5948,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>DA261</t>
         </is>
       </c>
     </row>
@@ -5964,27 +5976,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -5995,19 +6007,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -6027,27 +6035,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -6058,19 +6066,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -6090,12 +6094,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -6121,11 +6125,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DA262</t>
         </is>
       </c>
     </row>
@@ -6153,27 +6153,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -6184,19 +6184,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6216,27 +6212,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -6250,12 +6246,12 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -6280,22 +6276,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -6309,12 +6305,12 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -6334,12 +6330,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6354,7 +6350,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -6368,7 +6364,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -6393,25 +6389,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I35" t="b">
         <v>0</v>
       </c>
@@ -6420,15 +6420,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -6448,27 +6452,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6479,15 +6483,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -6507,27 +6515,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6538,15 +6546,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -6566,25 +6578,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I38" t="b">
         <v>0</v>
       </c>
@@ -6593,15 +6609,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6641,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -6664,7 +6684,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -6684,7 +6704,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -6727,7 +6747,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6747,7 +6767,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -6790,7 +6810,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -6810,27 +6830,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -6841,19 +6861,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6873,27 +6889,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6904,19 +6920,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6936,27 +6948,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6967,19 +6979,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -6999,27 +7007,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -7030,19 +7038,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7066,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -7101,7 +7105,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -7121,7 +7125,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -7131,17 +7135,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -7152,19 +7156,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7184,27 +7184,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -7215,19 +7215,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -7247,27 +7243,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -7278,19 +7274,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -7310,27 +7302,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7341,19 +7333,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7404,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -7479,7 +7467,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7530,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -7567,22 +7555,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -7593,15 +7581,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -7621,12 +7613,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7664,7 +7656,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -7684,12 +7676,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7727,7 +7719,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -7747,12 +7739,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7790,7 +7782,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -7810,27 +7802,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -7841,1534 +7833,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>3</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>3</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>3</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>3</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>3</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>3</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>3</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>3</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>3</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>3</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>3</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>3</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>3</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>3</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>3</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>3</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>3</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>3</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>3</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
           <t>DA262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>3</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>3</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>3</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>3</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>3</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>3</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,224 +481,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304 [L402]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261 [L402]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C305]</t>
+          <t>DA262 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS304 [C104]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS304 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DA261 [C304]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C004]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>DA262 [C104]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HSS_B3 (Tutorial)</t>
+          <t>DA261 [C101]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS304 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L208]</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L206]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS307 [L408]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>CS307 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L206]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C104]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C104]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C104]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C104]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -713,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,11 +855,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASD352, CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -816,31 +880,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -861,7 +925,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -876,12 +940,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -898,96 +962,6 @@
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>Semester 3</t>
         </is>
@@ -1004,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,7 +1045,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1087,26 +1061,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1122,26 +1096,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1157,26 +1131,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1197,7 +1171,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1232,7 +1206,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1267,7 +1241,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1297,17 +1271,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1316,7 +1290,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1324,111 +1298,6 @@
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1542,16 +1411,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1610,16 +1479,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>21.25</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1644,16 +1513,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1678,16 +1547,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1746,16 +1615,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1814,16 +1683,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2052,16 +1921,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2222,16 +2091,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2290,16 +2159,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2324,16 +2193,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2474,16 +2343,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2576,16 +2445,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2610,16 +2479,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2644,16 +2513,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2678,16 +2547,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2706,7 +2575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2749,224 +2618,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304 [L402]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261 [L402]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C305]</t>
+          <t>DA262 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS304 [C104]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS304 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DA261 [C304]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C004]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>DA262 [C104]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HSS_B3 (Tutorial)</t>
+          <t>DA261 [C101]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial) [C104]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DA262 [C004]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L406]</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L407]</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L405]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS307 [L408]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L407]</t>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L405]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C104]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C104]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C104]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C104]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -3019,7 +2952,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -3031,12 +2964,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C202</t>
         </is>
       </c>
     </row>
@@ -3048,12 +2981,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
@@ -3065,12 +2998,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C004</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3020,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003, C101</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3037,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C101</t>
         </is>
       </c>
     </row>
@@ -3121,19 +3054,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C102</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -3141,63 +3074,51 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -3205,12 +3126,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CS162</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -3218,55 +3139,59 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C002, C003, C202</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C004, C102</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -3274,25 +3199,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C001, C003, C101</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -3300,12 +3229,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3313,15 +3242,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C001, C102</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3334,7 +3267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3432,7 +3365,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3573,14 +3506,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C305, L402, C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**HSS_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3627,22 +3560,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3652,7 +3585,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3667,29 +3600,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>L208, L408, C302</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**DA262**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Siddharth</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3699,7 +3632,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3709,44 +3642,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>L402, C004</t>
+          <t>C104, L207</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3761,34 +3694,34 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L208, C102</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**DA262**</t>
+          <t>**DA261**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>1/0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3808,99 +3741,52 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>L106, C004</t>
+          <t>L206, C101</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>**DA261**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Total Courses: 9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>Rate: 22.2%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1/0</t>
+          <t>Lectures: 17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 6</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 7 issues</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Total Courses: 10</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Complete: 1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Rate: 10.0%</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Lectures: 19</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>[WARN] 9 issues</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -3917,7 +3803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3975,26 +3861,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4002,23 +3888,23 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA262, MA261, CS304 (Tutorial)...</t>
+          <t>MA262, MA261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4049,7 +3935,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4061,7 +3947,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4076,11 +3962,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4092,19 +3978,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4119,11 +4005,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4131,28 +4017,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Design, MINOR: DSAI, MINOR: Cybersecurity...</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4162,7 +4048,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4178,7 +4064,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -4190,7 +4076,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4221,7 +4107,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -4233,22 +4119,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4260,59 +4146,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS304, MA261</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4401,6 +4244,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4423,22 +4271,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -4452,12 +4300,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4482,22 +4335,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -4511,12 +4364,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4399,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4551,12 +4409,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -4570,12 +4428,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4595,27 +4458,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -4629,12 +4492,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4527,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4669,12 +4537,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -4688,12 +4556,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4718,22 +4591,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4747,12 +4620,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4772,27 +4650,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -4806,12 +4684,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>MA261</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4831,27 +4714,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -4865,12 +4748,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>DA262</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4890,27 +4778,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4924,12 +4812,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4949,27 +4842,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -4983,12 +4876,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5008,12 +4906,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -5023,12 +4921,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -5042,12 +4940,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5067,12 +4970,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -5082,12 +4985,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -5101,12 +5004,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5126,22 +5034,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -5160,12 +5068,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5185,12 +5098,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -5205,7 +5118,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -5219,12 +5132,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5244,12 +5162,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -5259,12 +5177,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -5278,12 +5196,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5303,12 +5226,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -5318,12 +5241,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -5337,12 +5260,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5362,12 +5290,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5390,18 +5318,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5421,42 +5354,51 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5476,27 +5418,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5504,22 +5446,23 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5539,27 +5482,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5567,22 +5510,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5602,27 +5546,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5630,22 +5574,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5665,27 +5610,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5693,22 +5638,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5728,27 +5674,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5756,22 +5702,23 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5791,27 +5738,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5819,22 +5766,23 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5854,7 +5802,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5864,17 +5812,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5882,22 +5830,23 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5866,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5932,12 +5881,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5945,18 +5894,23 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5976,12 +5930,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5991,12 +5945,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -6004,18 +5958,23 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -6035,12 +5994,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6063,18 +6022,23 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6094,7 +6058,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6104,17 +6068,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -6125,15 +6089,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6153,27 +6126,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -6184,15 +6157,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6212,12 +6194,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6243,15 +6225,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6271,27 +6262,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -6302,15 +6293,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6330,22 +6330,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6361,15 +6361,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6398,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -6399,17 +6408,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -6427,12 +6436,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6466,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -6462,19 +6476,15 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -6490,12 +6500,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6515,27 +6530,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6553,12 +6568,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6578,27 +6598,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6616,12 +6636,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6641,12 +6666,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6684,7 +6709,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6704,29 +6734,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -6742,12 +6768,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6767,27 +6798,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6805,12 +6836,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6830,27 +6866,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -6861,15 +6897,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6889,27 +6934,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6920,15 +6965,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6953,7 +7007,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6979,7 +7033,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>C202</t>
@@ -6987,7 +7045,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7007,22 +7070,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -7038,15 +7101,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7138,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -7097,7 +7169,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>C004</t>
@@ -7105,7 +7181,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7125,27 +7206,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -7156,15 +7237,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7184,29 +7274,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -7215,15 +7301,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7243,12 +7338,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -7274,15 +7369,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7302,12 +7406,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -7333,15 +7437,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7361,29 +7474,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -7392,21 +7501,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7424,27 +7530,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -7455,21 +7561,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7487,27 +7590,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -7518,21 +7621,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7550,27 +7650,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -7581,21 +7681,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7613,27 +7710,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -7644,21 +7741,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7676,7 +7770,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -7686,17 +7780,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -7707,143 +7801,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>3</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>L208</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7856,7 +7825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8058,7 +8027,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1/0/0</t>
+          <t>1/0/2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -8209,7 +8178,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8266,7 +8235,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8286,7 +8255,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -8323,27 +8292,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3/0/0</t>
+          <t>3/1/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -8358,7 +8327,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -8380,12 +8349,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8429,63 +8398,6 @@
         </is>
       </c>
       <c r="K10" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3/1/0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -8565,7 +8477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 23:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8586,11 +8498,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 6, Elective: 4</t>
+          <t>Core: 6, Elective: 3</t>
         </is>
       </c>
     </row>
@@ -8612,7 +8524,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/10 courses fully compliant</t>
+          <t>0/9 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -8629,12 +8541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8/36</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 22.2%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
@@ -1649,16 +1649,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2479,16 +2479,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2547,16 +2547,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L206]</t>
+          <t>DA262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2830,12 +2830,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L405]</t>
+          <t>DA261 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L206]</t>
+          <t>DA262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L405]</t>
+          <t>DA261 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C003, C202</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002, C003, C202</t>
+          <t>C002, C004</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C002, C004</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C003, C101</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C003, C101</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C001, C102</t>
+          <t>C102, C104</t>
         </is>
       </c>
     </row>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C003, C202</t>
+          <t>C002, C004</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C003, C101</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C001, C102</t>
+          <t>C102, C104</t>
         </is>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -4876,7 +4876,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -5428,17 +5428,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5452,7 +5452,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -5492,17 +5492,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5516,7 +5516,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -5900,7 +5900,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5964,7 +5964,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -6063,24 +6063,20 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -6089,26 +6085,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -6136,17 +6124,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -6164,7 +6152,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -6204,12 +6192,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -6232,7 +6220,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -6272,17 +6260,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -6300,7 +6288,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -6345,14 +6333,10 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -6368,7 +6352,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -6408,12 +6392,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -6436,7 +6420,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -6476,15 +6460,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -6500,12 +6488,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6530,12 +6518,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6568,17 +6556,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6598,22 +6586,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6629,26 +6617,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6676,17 +6656,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6704,12 +6684,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6744,15 +6724,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -6768,12 +6752,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6808,19 +6792,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -6836,12 +6816,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6876,12 +6856,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -6904,12 +6884,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6977,7 +6957,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7002,22 +6982,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -7040,7 +7020,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -7050,7 +7030,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7070,22 +7050,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -7108,17 +7088,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7143,22 +7123,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -7169,26 +7149,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7249,7 +7221,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7284,15 +7256,19 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -7308,12 +7284,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7348,19 +7324,15 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -7376,12 +7348,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7444,12 +7416,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7474,25 +7446,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -7501,18 +7477,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7530,22 +7514,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -7561,18 +7545,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7595,7 +7587,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7621,18 +7613,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7660,17 +7660,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -7684,7 +7684,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -7720,17 +7720,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -7744,7 +7744,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -7780,17 +7780,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -7804,7 +7804,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">

--- a/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
@@ -486,27 +486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
     </row>
@@ -518,27 +518,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C104]</t>
+          <t>DA262 [C305]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS304 [C104]</t>
+          <t>CS304 [C203]</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -565,12 +565,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS304 [C104]</t>
+          <t>CS304 [C102]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA262 [C104]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DA261 [C101]</t>
+          <t>DA261 [C102]</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -678,27 +678,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>DA262 [L406]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L208]</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L206]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
     </row>
@@ -710,27 +710,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>CS307 [C302]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L208]</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L206]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,11 +855,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>ASD352, CS253</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -880,31 +880,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -940,12 +940,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -962,6 +962,96 @@
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Semester 3</t>
         </is>
@@ -978,7 +1068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,7 +1135,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1061,26 +1151,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1096,26 +1186,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1131,26 +1221,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1171,7 +1261,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1206,7 +1296,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1241,7 +1331,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1271,33 +1361,138 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>HSS_B5</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>HS301</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Fri 14:30-15:30</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1411,16 +1606,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1445,16 +1640,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1479,16 +1674,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>48.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1513,16 +1708,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1615,16 +1810,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>55.00000000000001</v>
+        <v>6.25</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1649,16 +1844,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1683,16 +1878,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1819,16 +2014,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1955,16 +2150,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2023,16 +2218,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2091,16 +2286,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2193,16 +2388,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2479,16 +2674,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2547,16 +2742,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2623,27 +2818,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
     </row>
@@ -2655,27 +2850,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C104]</t>
+          <t>DA262 [C305]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS304 [C104]</t>
+          <t>CS304 [C203]</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2887,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2702,12 +2897,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS304 [C104]</t>
+          <t>CS304 [C102]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2951,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA262 [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2766,12 +2961,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DA261 [C101]</t>
+          <t>DA261 [C102]</t>
         </is>
       </c>
     </row>
@@ -2815,27 +3010,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L105]</t>
+          <t>DA262 [L406]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L406]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
     </row>
@@ -2847,14 +3042,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>CS307 [C302]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L105]</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
@@ -2862,12 +3057,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L406]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
     </row>
@@ -2879,27 +3074,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
     </row>
@@ -2952,7 +3147,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C003, C202</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2964,12 +3159,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002, C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2981,12 +3176,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C002, C101</t>
         </is>
       </c>
     </row>
@@ -2998,12 +3193,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3215,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C102, C104</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3232,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -3054,19 +3249,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -3074,51 +3269,63 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C002, C101</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C101, C102</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C102, C104</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -3126,12 +3333,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -3139,59 +3346,55 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C202, C203</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C002, C004</t>
-        </is>
-      </c>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C003, C004</t>
-        </is>
-      </c>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -3199,29 +3402,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C001, C101</t>
-        </is>
-      </c>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CS162</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -3229,12 +3428,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3242,19 +3441,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>C102, C104</t>
-        </is>
-      </c>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3262,6 +3457,589 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>**MA262**</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>**HSS_B3**</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B3**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**CS304**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C102, C104, C203</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B5**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>**CS307**</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C302, C104, L106</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>**MA261**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C004, C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B4**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>**DA262**</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>L406, C305, L207</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>**DA261**</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Statistical Programming</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Total Courses: 10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Complete: 1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rate: 10.0%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lectures: 19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Labs: 4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[WARN] 9 issues</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3278,884 +4056,477 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Faculty</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LTPSC</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Lect/Tuts/Week</t>
+          <t>Total Sessions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Labs/Week</t>
+          <t>Sections</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Combined Class</t>
+          <t>Courses Assigned</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Allocation</t>
+          <t>Sample Courses</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Utilization (Sessions/Day)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**HSS_B3**</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS304, DA261</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS307, CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**HSS_B5**</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**DA262**</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C104, L207</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>L208, C102</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**DA261**</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1/0</t>
-        </is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>L206, C101</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>**SUMMARY**</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Courses: 9</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Complete: 2</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rate: 22.2%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lectures: 17</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Labs: 6</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[WARN] 7 issues</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Room Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Sessions</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sections</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Courses Assigned</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sample Courses</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Utilization (Sessions/Day)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>MA262, MA261</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
           <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>15</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>MINOR: Design, MINOR: DSAI, MINOR: Cybersecurity...</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L208</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4206,47 +4577,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -4276,42 +4657,50 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>MINOR: Generative Ai</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4340,42 +4729,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4404,42 +4801,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
         <is>
           <t>C104</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>CS304 (Tutorial)</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4463,47 +4868,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4522,52 +4935,60 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4591,47 +5012,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4655,47 +5084,55 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4719,47 +5156,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4788,42 +5233,50 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4847,47 +5300,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4906,52 +5367,60 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4975,47 +5444,55 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5039,47 +5516,55 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5098,52 +5583,60 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5167,47 +5660,55 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5231,47 +5732,55 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5295,47 +5804,55 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5359,47 +5876,55 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5423,47 +5948,55 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5482,52 +6015,60 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5546,52 +6087,60 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5615,47 +6164,55 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
         <is>
           <t>C104</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5679,47 +6236,55 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5743,47 +6308,55 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5807,47 +6380,55 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5871,47 +6452,55 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5930,52 +6519,64 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5994,52 +6595,60 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6063,40 +6672,60 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -6124,46 +6753,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6192,46 +6829,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6260,46 +6905,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6328,42 +6981,54 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6382,56 +7047,64 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6450,56 +7123,60 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6518,56 +7195,64 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6586,49 +7271,65 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6656,46 +7357,54 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6724,46 +7433,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6792,42 +7509,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6846,56 +7575,64 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6914,56 +7651,60 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6982,56 +7723,64 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7050,56 +7799,64 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7123,44 +7880,60 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7188,46 +7961,54 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -7256,563 +8037,55 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>3</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>3</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>3</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>3</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7825,7 +8098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8027,7 +8300,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1/0/2</t>
+          <t>1/0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -8178,7 +8451,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8235,7 +8508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8255,7 +8528,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -8292,27 +8565,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -8327,7 +8600,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -8349,55 +8622,112 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Differential Equations</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>3-1-0-0-2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>3/1/0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2/0/0</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0/0/0</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[FAIL]</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>[FAIL]</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[WARN] PARTIAL</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -8477,7 +8807,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 23:36</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8498,11 +8828,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 6, Elective: 3</t>
+          <t>Core: 6, Elective: 4</t>
         </is>
       </c>
     </row>
@@ -8524,7 +8854,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/9 courses fully compliant</t>
+          <t>0/10 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -8541,12 +8871,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>10/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 27.8%</t>
         </is>
       </c>
     </row>
@@ -8563,12 +8893,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 80.0%, B: 0.0%</t>
+          <t>A: 84.4%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -8590,7 +8920,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 36.0/100</t>
+          <t>Score: 36.7/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C305]</t>
+          <t>DA262 [C303]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DA261 [C102]</t>
+          <t>DA261 [C202]</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 [L406]</t>
+          <t>DA262 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
     </row>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1674,16 +1674,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>48.75</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1742,16 +1742,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1878,16 +1878,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1912,16 +1912,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1980,16 +1980,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2286,16 +2286,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2388,16 +2388,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2674,16 +2674,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C305]</t>
+          <t>DA262 [C303]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DA261 [C102]</t>
+          <t>DA261 [C202]</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 [L406]</t>
+          <t>DA262 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C101</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C101</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -3525,17 +3525,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Krishendu, Girish</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C102, C104, C203</t>
+          <t>C203, C104, C102</t>
         </is>
       </c>
     </row>
@@ -3765,12 +3765,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C302, C104, L106</t>
+          <t>C004, C104, L107</t>
         </is>
       </c>
     </row>
@@ -3807,17 +3807,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3837,12 +3837,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, C003</t>
+          <t>C004, C002</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>L406, C305, L207</t>
+          <t>C004, L207, C303</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -4000,12 +4000,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Complete: 1</t>
+          <t>Complete: 3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rate: 10.0%</t>
+          <t>Rate: 30.0%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[WARN] 9 issues</t>
+          <t>[WARN] 7 issues</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4045,7 +4045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4103,7 +4103,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MINOR: DSAI, MINOR: VLSI, MINOR: Design...</t>
+          <t>CS307, MINOR: Cybersecurity, MA261...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS304, DA261</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -4361,7 +4361,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4404,7 +4404,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4484,49 +4484,6 @@
       <c r="I10" t="inlineStr">
         <is>
           <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4878,17 +4835,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -4902,7 +4859,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -5171,7 +5128,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5190,7 +5147,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -5238,17 +5195,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -5262,7 +5219,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -5694,7 +5651,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -6270,7 +6227,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -6342,7 +6299,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -6414,7 +6371,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6938,7 +6895,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6996,7 +6953,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -7014,7 +6971,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -7210,12 +7167,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -7238,7 +7195,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -7314,7 +7271,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7390,7 +7347,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7542,7 +7499,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7994,7 +7951,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -8052,7 +8009,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -8070,7 +8027,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -8233,12 +8190,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -8258,12 +8215,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -8627,17 +8584,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -8657,7 +8614,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -8684,17 +8641,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -8714,7 +8671,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -8807,7 +8764,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8871,12 +8828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10/36</t>
+          <t>9/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 27.8%</t>
+          <t>Utilization: 25.0%</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9041,16 +8998,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HSS (Ethics)</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -9068,12 +9025,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -9083,17 +9040,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
         </is>
       </c>
     </row>
@@ -9113,12 +9070,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -9140,7 +9097,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -9155,7 +9112,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -9165,7 +9122,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
         </is>
       </c>
     </row>
@@ -9185,20 +9142,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -9208,11 +9165,11 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Siddharth</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -9257,34 +9214,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2-0-2-0-3</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -9329,12 +9286,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -9342,21 +9299,21 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -9401,34 +9358,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Neuro-Linguistics</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+          <t>Manjunath K V</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -9448,7 +9405,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -9473,12 +9430,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Neuro-Linguistics</t>
+          <t>Leadership I</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -9500,7 +9457,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -9545,12 +9502,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leadership I</t>
+          <t>Sociology for India</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -9572,7 +9529,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Jagadeesha R Bhat</t>
+          <t>Anushree Kini</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -9617,12 +9574,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociology for India</t>
+          <t>Social Impact</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -9644,7 +9601,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -9689,12 +9646,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Social Impact</t>
+          <t>Holistic Personality</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -9716,7 +9673,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -9761,34 +9718,34 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Holistic Personality</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Sandesh P</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -9833,34 +9790,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -9870,164 +9827,20 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
-        <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HSS/IE</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Statistical Programming</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
@@ -10221,7 +10034,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Not Scheduled (Error)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -10231,12 +10044,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -11181,7 +10994,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Not Scheduled (Error)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -11191,12 +11004,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -11219,7 +11032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11282,16 +11095,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HSS (Ethics)</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -11318,24 +11131,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>Somen B</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -11371,23 +11184,23 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -11419,23 +11232,23 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Siddharth</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -11467,19 +11280,19 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -11515,23 +11328,23 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Neuro-Linguistics</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -11563,19 +11376,19 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+          <t>Manjunath K V</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Neuro-Linguistics</t>
+          <t>Leadership I</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -11611,19 +11424,19 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Jagadeesha R Bhat</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Leadership I</t>
+          <t>Sociology for India</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -11659,19 +11472,19 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Jagadeesha R Bhat</t>
+          <t>Anushree Kini</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sociology for India</t>
+          <t>Social Impact</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -11707,19 +11520,19 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Social Impact</t>
+          <t>Holistic Personality</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -11755,23 +11568,23 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Holistic Personality</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>3</v>
@@ -11803,23 +11616,23 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Sandesh P</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Electronics Systems</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>3</v>
@@ -11841,7 +11654,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -11851,23 +11664,23 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Pankaj</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>Introduction of Communication</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -11889,29 +11702,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Electronics Systems</t>
+          <t>Introduction to AI</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -11947,19 +11760,19 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction of Communication</t>
+          <t>Electronic Systems</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -11995,19 +11808,19 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Mallikarjun Kande</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Introduction to AI</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -12043,19 +11856,19 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Abdul Wahid</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Electronic Systems</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -12071,17 +11884,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -12091,19 +11904,19 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Somen B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -12119,17 +11932,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -12139,19 +11952,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HSS (Ethics)</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -12182,28 +11995,28 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>Siddharth</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
@@ -12220,7 +12033,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -12235,23 +12048,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
@@ -12268,7 +12081,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -12283,23 +12096,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Neuro-Linguistics</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -12331,23 +12144,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Manjunath K V</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Leadership I</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -12379,23 +12192,23 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Jagadeesha R Bhat</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Sociology for India</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
@@ -12427,19 +12240,19 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+          <t>Anushree Kini</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Neuro-Linguistics</t>
+          <t>Social Impact</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -12475,19 +12288,19 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Leadership I</t>
+          <t>Holistic Personality</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -12523,23 +12336,23 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jagadeesha R Bhat</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sociology for India</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>3</v>
@@ -12571,23 +12384,23 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Sandesh P</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Social Impact</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>3</v>
@@ -12604,12 +12417,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -12618,198 +12431,6 @@
         </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>Rajesh Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Holistic Personality</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Any</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>User Interaction</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Any</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>HSS/IE</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Any</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Statistical Programming</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
         <is>
           <t>Ramesh Athe</t>
         </is>

--- a/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_post_mid_timetable.xlsx
@@ -486,27 +486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -518,27 +518,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C303]</t>
+          <t>DA262 [C302]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS304 [C203]</t>
+          <t>CS304 [C104]</t>
         </is>
       </c>
     </row>
@@ -565,12 +565,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS304 [C102]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C104]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>DA262 [C202]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1674,16 +1674,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>55.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1742,16 +1742,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>22.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1878,16 +1878,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1912,16 +1912,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1980,16 +1980,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2014,16 +2014,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2286,16 +2286,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2818,27 +2818,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -2850,27 +2850,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C303]</t>
+          <t>DA262 [C302]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS304 [C203]</t>
+          <t>CS304 [C104]</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS304 [C102]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C104]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>DA262 [C202]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
     </row>
@@ -3074,27 +3074,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C203, C104, C102</t>
+          <t>C101, C104</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C104, L107</t>
+          <t>C302, C102, L106</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, C002</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>C004, L207, C303</t>
+          <t>L207, C302, C202</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4139,33 +4139,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4173,23 +4173,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS307, MINOR: Cybersecurity, MA261...</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4232,7 +4232,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4251,7 +4251,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4259,23 +4259,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS307, CS304 (Tutorial)</t>
+          <t>MINOR: Generative Ai, MINOR: Design, CS307...</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4302,23 +4302,23 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS304 (Tutorial), MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4333,11 +4333,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4345,23 +4345,23 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA262, DA261</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4376,11 +4376,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4388,23 +4388,23 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA262, CS307</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4619,17 +4619,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -4643,7 +4643,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4691,17 +4691,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -4715,7 +4715,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4835,17 +4835,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -4859,7 +4859,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4907,17 +4907,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4931,7 +4931,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4979,17 +4979,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -5003,7 +5003,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -5051,17 +5051,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -5075,7 +5075,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -5195,17 +5195,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -5219,7 +5219,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -5267,17 +5267,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -5291,7 +5291,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -5339,17 +5339,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -5363,7 +5363,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -5411,17 +5411,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -5435,7 +5435,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5483,17 +5483,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -5507,7 +5507,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5555,17 +5555,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -5579,7 +5579,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -5651,7 +5651,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5723,7 +5723,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5915,17 +5915,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5939,7 +5939,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5987,17 +5987,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -6011,7 +6011,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -6083,7 +6083,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -6155,7 +6155,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -6299,7 +6299,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -6371,7 +6371,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6419,17 +6419,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -6443,7 +6443,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -6491,17 +6491,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6567,15 +6567,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
@@ -6591,7 +6595,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6639,12 +6643,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -6667,7 +6671,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6743,7 +6747,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6819,7 +6823,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6877,7 +6881,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -6895,7 +6899,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6971,7 +6975,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -7019,17 +7023,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -7047,7 +7051,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -7095,15 +7099,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -7119,7 +7127,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -7167,12 +7175,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -7195,7 +7203,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -7271,7 +7279,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -7347,7 +7355,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7405,7 +7413,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -7423,7 +7431,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7499,7 +7507,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7547,17 +7555,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -7575,7 +7583,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7623,15 +7631,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -7647,7 +7659,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7695,12 +7707,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -7723,7 +7735,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7799,7 +7811,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7875,7 +7887,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7933,7 +7945,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -7951,7 +7963,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -8027,7 +8039,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -8764,7 +8776,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
